--- a/HT-1/Banco-BAC-11-Catálogo de atributos y relaciones.xlsx
+++ b/HT-1/Banco-BAC-11-Catálogo de atributos y relaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22455A78-3EE0-40D1-94AC-4C9EB5BA18B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD0B395-F9AE-4AF1-92AB-34D7B4B42471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Descripción</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Ya que los empleados son personas, tienen una cédula asociada</t>
+  </si>
+  <si>
+    <t>Cada empleado está asignado a una sucursal</t>
+  </si>
+  <si>
+    <t>Cada banco tiene un nombre</t>
+  </si>
+  <si>
+    <t>Persona Jurídica</t>
+  </si>
+  <si>
+    <t>Un banco invierte el dinero del que dispone en empresas</t>
   </si>
 </sst>
 </file>
@@ -237,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -260,35 +272,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,9 +303,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -328,23 +313,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -710,25 +689,25 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -736,65 +715,65 @@
         <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>22</v>
+      <c r="A13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -802,252 +781,270 @@
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
+      <c r="A15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+    <row r="26" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="28" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+    <row r="32" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
